--- a/Problem 1 - Data/AircraftData.xlsx
+++ b/Problem 1 - Data/AircraftData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjribeiro/Documents/courses/AE4423 Airline Planning &amp; Optimisation/2025/Assignment1/Problem 1/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aadb9d128a4cfa1d/Documenten/python/Airline_planning/Problem 1 - Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C7135AC-72F6-7E44-877D-601E79AC948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{4C7135AC-72F6-7E44-877D-601E79AC948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98EE4399-368D-4277-BAB0-B8072C3FF7B1}"/>
   <bookViews>
-    <workbookView xWindow="38580" yWindow="1500" windowWidth="34560" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aircraft Data" sheetId="1" r:id="rId1"/>
@@ -20,66 +20,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Aircraft Type</t>
-  </si>
-  <si>
-    <t>Aircraft 1</t>
-  </si>
-  <si>
-    <t>Aircraft 2</t>
-  </si>
-  <si>
-    <t>Aircraft 3</t>
-  </si>
-  <si>
-    <t>Aircraft 4</t>
-  </si>
-  <si>
-    <t>Regional turboprop</t>
-  </si>
-  <si>
-    <t>Regional jet</t>
-  </si>
-  <si>
-    <t>Single aisle, twin engine jet</t>
-  </si>
-  <si>
-    <t>Twin aisle, twin engine jet</t>
-  </si>
-  <si>
-    <t>Aircraft Characteristics</t>
-  </si>
-  <si>
-    <t>Speed [km/h]</t>
-  </si>
-  <si>
-    <t>Seats</t>
-  </si>
-  <si>
-    <t>Average TAT [mins]</t>
-  </si>
-  <si>
-    <t>Maximum range [km]</t>
-  </si>
-  <si>
-    <t>Runway required [m]</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Weekly lease cost [€]</t>
-  </si>
-  <si>
-    <t>Fixed operating cost C_X [€]</t>
-  </si>
-  <si>
-    <t>Time cost parameter C_T [€/hr]</t>
-  </si>
-  <si>
-    <t>Fuel cost parameter C_F</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>AC4</t>
+  </si>
+  <si>
+    <t>AC3</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>seats</t>
+  </si>
+  <si>
+    <t>average_tat</t>
+  </si>
+  <si>
+    <t>maximum_range</t>
+  </si>
+  <si>
+    <t>runway_required</t>
+  </si>
+  <si>
+    <t>weekly_lease_cost</t>
+  </si>
+  <si>
+    <t>fixed_operating_cost</t>
+  </si>
+  <si>
+    <t>time_cost_parameter</t>
+  </si>
+  <si>
+    <t>fuel_cost_parameter</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>EUR/h</t>
   </si>
 </sst>
 </file>
@@ -95,7 +92,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -121,19 +117,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,221 +427,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="1" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>550</v>
+      </c>
+      <c r="D2">
+        <v>820</v>
+      </c>
+      <c r="E2">
+        <v>850</v>
+      </c>
+      <c r="F2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1500</v>
+      </c>
+      <c r="D5">
+        <v>3300</v>
+      </c>
+      <c r="E5">
+        <v>6300</v>
+      </c>
+      <c r="F5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1400</v>
+      </c>
+      <c r="D6">
+        <v>1600</v>
+      </c>
+      <c r="E6">
+        <v>1800</v>
+      </c>
+      <c r="F6">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>15000</v>
+      </c>
+      <c r="D7">
+        <v>34000</v>
+      </c>
+      <c r="E7">
+        <v>80000</v>
+      </c>
+      <c r="F7">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>550</v>
-      </c>
-      <c r="C4">
-        <v>820</v>
-      </c>
-      <c r="D4">
-        <v>850</v>
-      </c>
-      <c r="E4">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+      <c r="E8">
+        <v>1250</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>70</v>
-      </c>
-      <c r="D5">
-        <v>150</v>
-      </c>
-      <c r="E5">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>750</v>
+      </c>
+      <c r="D9">
+        <v>775</v>
+      </c>
+      <c r="E9">
+        <v>1400</v>
+      </c>
+      <c r="F9">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>45</v>
-      </c>
-      <c r="E6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>1500</v>
-      </c>
-      <c r="C7">
-        <v>3300</v>
-      </c>
-      <c r="D7">
-        <v>6300</v>
-      </c>
-      <c r="E7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>1400</v>
-      </c>
-      <c r="C8">
-        <v>1600</v>
-      </c>
-      <c r="D8">
-        <v>1800</v>
-      </c>
-      <c r="E8">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>15000</v>
-      </c>
       <c r="C10">
-        <v>34000</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>80000</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>300</v>
-      </c>
-      <c r="C11">
-        <v>600</v>
-      </c>
-      <c r="D11">
-        <v>1250</v>
-      </c>
-      <c r="E11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>750</v>
-      </c>
-      <c r="C12">
-        <v>775</v>
-      </c>
-      <c r="D12">
-        <v>1400</v>
-      </c>
-      <c r="E12">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
         <v>3.75</v>
       </c>
-      <c r="E13">
+      <c r="F10">
         <v>9</v>
       </c>
     </row>
